--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value758.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value758.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9716295643935033</v>
+        <v>1.110429883003235</v>
       </c>
       <c r="B1">
-        <v>2.469380347674138</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.771173292389095</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.289821120359925</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.24020724388063</v>
+        <v>1.068698406219482</v>
       </c>
     </row>
   </sheetData>
